--- a/oLMpics/gpt2-results/gpt2-results.xlsx
+++ b/oLMpics/gpt2-results/gpt2-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,153 +481,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>data/number_comparison_age_compare_masked_dev.jsonl</t>
+          <t>data-qa/composition_v2_dev.jsonl</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.4775 0.4775 0.465  0.4925 0.4775]</t>
+          <t>[0.3425 0.3075 0.3175 0.3125 0.2975]</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>47.79999999999999</v>
+        <v>31.55</v>
       </c>
       <c r="F2" t="n">
-        <v>1.210224363584537</v>
+        <v>2.086956107236066</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4658977563641546</v>
+        <v>0.2946304389276393</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4901022436358453</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>gpt2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>data/negation_antonym_synonym_negation_dev.jsonl</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.53   0.535  0.5375 0.525  0.535 ]</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>53.25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.620831999101874</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.5262916800089812</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5387083199910188</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>gpt2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>data/size_comparison_dev.jsonl</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[0.5025 0.5    0.5    0.5075 0.5025]</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>50.24999999999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.380180403447909</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4986981959655209</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.506301804034479</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>gpt2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>data/compositional_comparison_dev.jsonl</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[0.315  0.3225 0.3225 0.3175 0.34  ]</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.21419883853153</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3113580116146847</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.3356419883853153</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>gpt2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>data/quantifiers_coffee_cats_quantifiers_dev.jsonl</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[0.07589286 0.10267857 0.10267857 0.07589286 0.08928571]</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>8.928571428571429</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.662942854737187</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.07265628573834242</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1059151428330862</v>
+        <v>0.3363695610723607</v>
       </c>
     </row>
   </sheetData>

--- a/oLMpics/gpt2-results/gpt2-results.xlsx
+++ b/oLMpics/gpt2-results/gpt2-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,25 +481,153 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>data-qa/composition_v2_dev.jsonl</t>
+          <t>data/number_comparison_age_compare_masked_dev.jsonl</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.3425 0.3075 0.3175 0.3125 0.2975]</t>
+          <t>[0.475  0.475  0.4625 0.49   0.4775]</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31.55</v>
+        <v>47.59999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>2.086956107236066</v>
+        <v>1.21419883853153</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2946304389276393</v>
+        <v>0.4638580116146847</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3363695610723607</v>
+        <v>0.4881419883853153</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>gpt2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>data/negation_antonym_synonym_negation_dev.jsonl</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.53   0.535  0.5375 0.525  0.535 ]</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.620831999101874</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5262916800089812</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5387083199910188</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>gpt2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>data/size_comparison_dev.jsonl</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.5025 0.5    0.5    0.5075 0.5025]</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>50.24999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.380180403447909</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4986981959655209</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.506301804034479</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>gpt2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>data/compositional_comparison_dev.jsonl</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0.3175 0.3225 0.325  0.32   0.3425]</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.229968315283848</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3132003168471615</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3377996831528385</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>gpt2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>data/quantifiers_coffee_cats_quantifiers_dev.jsonl</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[0.07589286 0.10267857 0.10267857 0.07589286 0.08928571]</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8.928571428571429</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.662942854737187</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.07265628573834242</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1059151428330862</v>
       </c>
     </row>
   </sheetData>
